--- a/medicine/Enfance/Le_Merveilleux_pays_d'Oz/Le_Merveilleux_pays_d'Oz.xlsx
+++ b/medicine/Enfance/Le_Merveilleux_pays_d'Oz/Le_Merveilleux_pays_d'Oz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Merveilleux_pays_d%27Oz</t>
+          <t>Le_Merveilleux_pays_d'Oz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Merveilleux pays d'Oz (The Marvelous Land of Oz) est un roman de L. Frank Baum paru en 1904. C'est la suite du Magicien d'Oz.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Merveilleux_pays_d%27Oz</t>
+          <t>Le_Merveilleux_pays_d'Oz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune garçon nommé Tip, qui vit sous la garde d'une sorcière nommée Mombi, fabrique un homme à tête de citrouille. Il anime un tréteau pour en faire un cheval pour l'homme à tête de citrouille. Tous deux vont chercher fortune à la cité d'Émeraude. Ils y rencontrent l'Épouvantail, qui s'est fait renverser du pouvoir par une général et son armée de jeunes filles. Ils vont au château du Bûcheron de fer blanc pour qu'ils les aident à remettre l'Épouvantail sur le trône.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Merveilleux_pays_d%27Oz</t>
+          <t>Le_Merveilleux_pays_d'Oz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">The Marvelous Land of Oz sur Projet Gutenberg
  Portail de la fantasy et du fantastique   Portail de la littérature d’enfance et de jeunesse   Portail de la littérature américaine                   </t>
